--- a/finalProject/src/test/resources/excelData/login.xlsx
+++ b/finalProject/src/test/resources/excelData/login.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\git\finalProject\finalProject\src\test\resources\excelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFE1D5-0BD1-45A5-AF19-680FB9139EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{07297D57-A450-4F72-8C0E-362915C0EBDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{44A295F9-3D4D-43EC-ADF0-DEF615615994}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19248" windowHeight="4368" xr2:uid="{44A295F9-3D4D-43EC-ADF0-DEF615615994}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>usernmae</t>
   </si>
@@ -34,6 +30,12 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>ProfileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin KL </t>
   </si>
 </sst>
 </file>
@@ -385,28 +387,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE004E7C-C6E6-49B4-8747-9FD6B22F6B4D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
